--- a/5_Snowballing/Backword_Snowballing_1.xlsx
+++ b/5_Snowballing/Backword_Snowballing_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5AECA9-0203-EF49-ABD3-9F79BC8A4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01E27C-381B-A44D-A088-E3BD6555DDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="1740" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1157">
   <si>
     <t>ID</t>
   </si>
@@ -3471,6 +3471,83 @@
   </si>
   <si>
     <t>In continuous integration development environments, software engineers frequently integrate new or changed code with the mainline codebase. This can reduce the amount of code rework that is needed as systems evolve and speed up development time. While continuous integration processes traditionally require that extensive testing be performed following the actual submission of code to the codebase, it is also important to ensure that enough testing is performed prior to code submission to avoid breaking builds and delaying the fast feedback that makes continuous integration desirable. In this work, we present algorithms that make continuous integration processes more cost-effective. In an initial pre-submit phase of testing, developers specify modules to be tested, and we use regression test selection techniques to select a subset of the test suites for those modules that render that phase more cost-effective. In a subsequent post-submit phase of testing, where dependent modules as well as changed modules are tested, we use test case prioritization techniques to ensure that failures are reported more quickly. In both cases, the techniques we utilize are novel, involving algorithms that are relatively inexpensive and do not rely on code coverage information -- two requirements for conducting testing cost-effectively in this context. To evaluate our approach, we conducted an empirical study on a large data set from Google that we make publicly available. The results of our study show that our selection and prioritization techniques can each lead to cost-effectiveness improvements in the continuous integration process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no book </t>
+  </si>
+  <si>
+    <t>Prioritizing dissimilar test cases in regression testing using historical failure data</t>
+  </si>
+  <si>
+    <t>MA Rahman, MA Hasan, MS Siddik</t>
+  </si>
+  <si>
+    <t>Int. Journal of Computer Applications, 2018</t>
+  </si>
+  <si>
+    <t>Test case prioritization assigns new order of test cases for detecting regression faults at early. In regression testing when new version is released, all the test cases of both previous and current versions are executed to ensure the desired functionality. This process increases the volume of test cases in regression testing, which is expensive and time consuming. That is why the test cases are needed to be reordered for exploring maximum faults in minimum test cases execution. Usually test case prioritization techniques are designed based on source code coverage, requirements clustering, etc. Most of these techniques contain the similarity relationship among the test cases. However, similarity based technique may stuck in local minima. To overcome the limitation of similarity based prioritization, this paper proposed the dissimilar clustering based approach using historical data analysis to detect maximum faults. In this approach, dissimilar test cases placed in the top of the test suites and executed earlier than similar test cases. Proposed scheme is evaluated using well established Defects4j dataset, and it has reported that proposed strategy performs 54.95%, 41.83% and 7.00% better than untreated (normal ordering), random and similarity cluster based prioritization methods respectively.</t>
+  </si>
+  <si>
+    <t>Exploring Better Black-Box Test Case Prioritization via Log Analysis</t>
+  </si>
+  <si>
+    <t>Zhichao Chen, Junjie Chen, Weijing Wang, Jianyi Zhou, Meng Wang, Xiang Chen, Shan Zhou, Jianmin Wang</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Software Engineering and Methodology, Volume 32, Issue 3</t>
+  </si>
+  <si>
+    <t>Test case prioritization (TCP) has been widely studied in regression testing, which aims to optimize the execution order of test cases so as to detect more faults earlier. TCP has been divided into white-box test case prioritization (WTCP) and black-box test case prioritization (BTCP). WTCP can achieve better prioritization effectiveness by utilizing source code information, but is not applicable in many practical scenarios (where source code is unavailable, e.g., outsourced testing). BTCP has the benefit of not relying on source code information, but tends to be less effective than WTCP. That is, both WTCP and BTCP suffer from limitations in the practical use.
+To improve the practicability of TCP, we aim to explore better BTCP, significantly bridging the effectiveness gap between BTCP and WTCP. In this work, instead of statically analyzing test cases themselves in existing BTCP techniques, we conduct the first study to explore whether this goal can be achieved via log analysis. Specifically, we propose to mine test logs produced during test execution to more sufficiently reflect test behaviors, and design a new BTCP framework (called LogTCP), including log pre-processing, log representation, and test case prioritization components. Based on the LogTCP framework, we instantiate seven log-based BTCP techniques by combining different log representation strategies with different prioritization strategies.
+We conduct an empirical study to explore the effectiveness of LogTCP. Based on 10 diverse open-source Java projects from GitHub, we compared LogTCP with three representative BTCP techniques and four representative WTCP techniques. Our results show that all of our LogTCP techniques largely perform better than all the BTCP techniques in average fault detection, to the extent that they become competitive to the WTCP techniques. That demonstrates the great potential of logs in practical TCP.</t>
+  </si>
+  <si>
+    <t>SW Thomas, H Hemmati, AE Hassan, D Blostein</t>
+  </si>
+  <si>
+    <t>Static test case prioritization using topic models</t>
+  </si>
+  <si>
+    <t>Empirical Software Engineering, 2014</t>
+  </si>
+  <si>
+    <t>Software development teams use test suites to test changes to their source code. In many situations, the test suites are so large that executing every test for every source code change is infeasible, due to time and resource constraints. Development teams need to prioritize their test suite so that as many distinct faults as possible are detected early in the execution of the test suite. We consider the problem of static black-box test case prioritization (TCP), where test suites are prioritized without the availability of the source code of the system under test (SUT). We propose a new static black-box TCP technique that represents test cases using a previously unused data source in the test suite: the linguistic data of the test cases, i.e., their identifier names, comments, and string literals. Our technique applies a text analysis algorithm called topic modeling to the linguistic data to approximate the functionality of each test case, allowing our technique to give high priority to test cases that test different functionalities of the SUT. We compare our proposed technique with existing static black-box TCP techniques in a case study of multiple real-world open source systems: several versions of Apache Ant and Apache Derby. We find that our static black-box TCP technique outperforms existing static black-box TCP techniques, and has comparable or better performance than two existing execution-based TCP techniques. Static black-box TCP methods are widely applicable because the only input they require is the source code of the test cases themselves. This contrasts with other TCP techniques which require access to the SUT runtime behavior, to the SUT specification models, or to the SUT source code.</t>
+  </si>
+  <si>
+    <t>Empirical evaluation of pareto efficient multi-objective regression test case prioritisation</t>
+  </si>
+  <si>
+    <t>MG Epitropakis, S Yoo, M Harman, EK Burke</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2015 International Symposium on Software Testing and Analysis, 2015</t>
+  </si>
+  <si>
+    <t>The aim of test case prioritisation is to determine an ordering of test cases that maximises the likelihood of early fault revelation. Previous prioritisation techniques have tended to be single objective, for which the additional greedy algorithm is the current state-of-the-art. Unlike test suite minimisation, multi objective test case prioritisation has not been thoroughly evaluated. This paper presents an extensive empirical study of the effectiveness of multi objective test case prioritisation, evaluating it on multiple versions of five widely-used benchmark programs and a much larger real world system of over 1 million lines of code. The paper also presents a lossless coverage compaction algorithm that dramatically scales the performance of all algorithms studied by between 2 and 4 orders of magnitude, making prioritisation practical for even very demanding problems.</t>
+  </si>
+  <si>
+    <t>A new effective test case prioritization for regression testing based on prioritization algorithm</t>
+  </si>
+  <si>
+    <t>T Muthusamy, K Seetharaman</t>
+  </si>
+  <si>
+    <t>Int. J. Appl. Inf. Syst.(IJAIS), 2014</t>
+  </si>
+  <si>
+    <t>Regression Testing is the process of executing the set of test cases which have passed on the previous build or release of the application under test in order to validate that the original features and functions are still working as they were previously. It is impracticable and in-sufficient resources to re-execute every test case for a program if changes occur. This problem of regression testing can be solved by prioritizing test cases. A regression test case prioritization technique involves re-ordering the execution of test suite to increase the rate of fault detection in earlier stages of testing process. In this paper, test case prioritization algorithm is proposed to identify the severe faults and improve the rate of fault detection. This proposed test case prioritization algorithm prioritizes the test cases based on four groups of practical weight factor such as: customer allotted priority, developer observed code execution complexity, changes in requirements, fault impact, completeness and traceability. The proposed prioritization technique is validated with three different validation metrics and is experimented using two projects. The effectiveness of proposed technique is achieved by comparing it with unprioritized ones and by validation metrics.</t>
+  </si>
+  <si>
+    <t>Deeporder: Deep learning for test case prioritization in continuous integration testing</t>
+  </si>
+  <si>
+    <t>A Sharif, D Marijan, M Liaaen</t>
+  </si>
+  <si>
+    <t>Continuous integration testing is an important step in the modern software engineering life cycle. Test prioritization is a method that can improve the efficiency of continuous integration testing by selecting test cases that can detect faults in the early stage of each cycle. As continuous integration testing produces voluminous test execution data, test history is a commonly used artifact in test prioritization. However, existing test prioritization techniques for continuous integration either cannot handle large test history or are optimized for using a limited number of historical test cycles. We show that such a limitation can decrease fault detection effectiveness of prioritized test suites. This work introduces DeepOrder, a deep learning-based model that works on the basis of regression machine learning. DeepOrder ranks test cases based on the historical record of test executions from any number of previous test cycles. DeepOrder learns failed test cases based on multiple factors including the duration and execution status of test cases. We experimentally show that deep neural networks, as a simple regression model, can be efficiently used for test case prioritization in continuous integration testing. DeepOrder is evaluated with respect to time-effectiveness and fault detection effectiveness in comparison with an industry practice and the state of the art approaches. The results show that DeepOrder outperforms the industry practice and state-of-the-art test prioritization approaches in terms of these two metrics.</t>
+  </si>
+  <si>
+    <t>2021 IEEE International Conference on Software Maintenance and Evolution (ICSME)</t>
   </si>
 </sst>
 </file>
@@ -3854,10 +3931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO156"/>
+  <dimension ref="A1:AO162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5048,6 +5125,9 @@
       <c r="AN25" t="s">
         <v>953</v>
       </c>
+      <c r="AO25" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -5089,6 +5169,9 @@
       <c r="AN26" t="s">
         <v>953</v>
       </c>
+      <c r="AO26" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -5130,6 +5213,9 @@
       <c r="AN27" t="s">
         <v>953</v>
       </c>
+      <c r="AO27" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -5174,6 +5260,9 @@
       <c r="AN28" t="s">
         <v>953</v>
       </c>
+      <c r="AO28" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -5215,6 +5304,9 @@
       <c r="AN29" t="s">
         <v>953</v>
       </c>
+      <c r="AO29" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -5256,6 +5348,9 @@
       <c r="AN30" t="s">
         <v>953</v>
       </c>
+      <c r="AO30" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -5297,6 +5392,9 @@
       <c r="AN31" t="s">
         <v>953</v>
       </c>
+      <c r="AO31" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -5338,8 +5436,11 @@
       <c r="AN32" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO32" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10499739</v>
       </c>
@@ -5379,8 +5480,11 @@
       <c r="AN33" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO33" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10199547</v>
       </c>
@@ -5420,8 +5524,11 @@
       <c r="AN34" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO34" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7273631</v>
       </c>
@@ -5467,8 +5574,11 @@
       <c r="AN35" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO35" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7885851</v>
       </c>
@@ -5508,8 +5618,11 @@
       <c r="AN36" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10507913</v>
       </c>
@@ -5549,8 +5662,11 @@
       <c r="AN37" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO37" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8305939</v>
       </c>
@@ -5590,8 +5706,11 @@
       <c r="AN38" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO38" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9440161</v>
       </c>
@@ -5632,7 +5751,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9796413</v>
       </c>
@@ -5673,7 +5792,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6844270</v>
       </c>
@@ -5714,7 +5833,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7375627</v>
       </c>
@@ -5755,7 +5874,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8452804</v>
       </c>
@@ -5793,7 +5912,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10932075</v>
       </c>
@@ -5834,7 +5953,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7273420</v>
       </c>
@@ -5881,7 +6000,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10298744</v>
       </c>
@@ -5925,7 +6044,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9787970</v>
       </c>
@@ -5969,7 +6088,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8855691</v>
       </c>
@@ -9406,7 +9525,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="145" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>1086</v>
       </c>
@@ -9426,7 +9545,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="146" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>1089</v>
       </c>
@@ -9446,7 +9565,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="147" spans="3:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>1093</v>
       </c>
@@ -9466,7 +9585,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="148" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>1097</v>
       </c>
@@ -9486,7 +9605,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="149" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>1101</v>
       </c>
@@ -9506,7 +9625,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="150" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>1105</v>
       </c>
@@ -9526,7 +9645,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="151" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>1109</v>
       </c>
@@ -9546,7 +9665,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="152" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>1113</v>
       </c>
@@ -9566,7 +9685,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="153" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>1117</v>
       </c>
@@ -9586,7 +9705,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="154" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>1121</v>
       </c>
@@ -9606,7 +9725,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="155" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:40" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>1125</v>
       </c>
@@ -9626,7 +9745,10 @@
         <v>953</v>
       </c>
     </row>
-    <row r="156" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>1132</v>
+      </c>
       <c r="C156" t="s">
         <v>1129</v>
       </c>
@@ -9643,6 +9765,126 @@
         <v>1131</v>
       </c>
       <c r="AN156" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="157" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F157">
+        <v>2018</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AN157" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="158" spans="2:40" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F158">
+        <v>2023</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AN158" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="159" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F159">
+        <v>2014</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AN159" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="160" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F160">
+        <v>2015</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AN160" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="161" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F161">
+        <v>2014</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="162" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F162">
+        <v>2021</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AN162" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Backword_Snowballing_1.xlsx
+++ b/5_Snowballing/Backword_Snowballing_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA01E27C-381B-A44D-A088-E3BD6555DDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323A7D6-8FAB-AD4F-8FEC-DA8776008586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="1740" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1183">
   <si>
     <t>ID</t>
   </si>
@@ -3548,6 +3548,85 @@
   </si>
   <si>
     <t>2021 IEEE International Conference on Software Maintenance and Evolution (ICSME)</t>
+  </si>
+  <si>
+    <t>Cluster-based adaptive test case prioritization</t>
+  </si>
+  <si>
+    <t>In order to enhance the efficiency of regression testing, test case prioritization (TCP) has been widely implemented, wherein a higher priority test case is executed earlier. Traditional TCP methods focus on improving the prioritization algorithm's efficacy. However, the majority of TCP approaches are characterized by a predetermined sequence of test cases prior to execution. Once established, this sequence remains consistent throughout the entire test execution process. As a result, any execution information generated during current test execution (such as fault-detected information) is unavailable for use in current round of test case prioritization and can only be utilized in subsequent regression testing. To address the issue of lagging utilization of fault-detected information, a cluster-based adaptive test case prioritization approach is proposed, which adds the new adaptive adjustment content in pre-prioritization. First, a new clustering criterion is defined and designed, by which produces test-case clusters in advance. Second, an adaptive TCP algorithm is proposed, which utilizes fault-detected information to adaptively adjust the order of test cases during the execution process based on the test-case clusters. Finally, one open-source Java program and three industrial-grade Java programs were selected for empirical evaluation. The experimental results demonstrate that the proposed technique not only serves as an enhanced version of pre-prioritization to improve the performance of the corresponding pre-prioritization technique, but also functions as an independent approach that outperforms other TCP techniques, including cluster-based TCPs, and another adaptive TCP. Specifically, when step=2 is applied using our cluster-based adaptive TCP approach, the results are significantly better than those obtained with step=1. For instance, in CT-14, the median APFD improvement rate for step=2 reaches 17.08 %, which is substantially higher than that achieved with step=1 (5.48 %).</t>
+  </si>
+  <si>
+    <t>X Wang, S Zhang</t>
+  </si>
+  <si>
+    <t>Information and Software Technology, 2024</t>
+  </si>
+  <si>
+    <t>A regression test case prioritization technique targeting 'hard to detect'faults</t>
+  </si>
+  <si>
+    <t>S Biswas, R Rathi, A Dutta, P Mitra, R Mall</t>
+  </si>
+  <si>
+    <t>International Journal of System Assurance Engineering and Management, 2022</t>
+  </si>
+  <si>
+    <t>We propose a novel regression test case prioritization technique targeting to detect ‘hard to detect’ faults. A ‘hard to detect fault’ is a fault that is detected by only one test case. In our technique, we first seed a large number of bugs into a program to create mutants. Each mutant is executed with the test suite and their execution results are recorded in a fault matrix. Using the fault matrix, we first prioritize the test cases based on their ‘hard to detect’ values. Our technique assigns higher priority to those test cases which reveal bugs in a program-component that are hard to expose. Subsequently, the remaining test cases are prioritized based on their fault detection capability. Our experimental results show that on an average our proposed TCP technique performs 43.82% better than existing TCP techniques.</t>
+  </si>
+  <si>
+    <t>Prioritizing Regression Tests for Desktop and Web-Applications based on the Execution Frequency of Modified Code</t>
+  </si>
+  <si>
+    <t>Matthias Hirzel, Jonathan Immanuel Brachthäuser, Herbert Klaeren</t>
+  </si>
+  <si>
+    <t>PPPJ '16: Proceedings of the 13th International Conference on Principles and Practices of Programming on the Java Platform: Virtual Machines, Languages, and Tools</t>
+  </si>
+  <si>
+    <t>Regression testing can be very time expensive when running all available test cases. Test prioritization seeks to find faults early by reordering tests. Existing techniques decide in which order tests should be run based on coverage data, knowledge of code changes, historical data of prior test execution or a combination of them. Others postpone tests if similar ones are already selected for early execution. However, these approaches do not take into account that tests which appear similar still might explore different parts of the application's state space and thus can result in different test outcome. Approaches based on structural coverage or on historical data might ignore small tests focusing on behavior that rarely changes. In this paper, we present a novel prioritization technique that is based on the frequencies with which modified code parts are executed by the tests. Our technique assumes that multiple executions of a modified code part (under different contexts) have a higher chance to reveal faults than a single execution of this code. For this purpose, we use both the output of regression test selection as well as test traces obtained during test development. We propose multiple variants of our technique, including a feedback mechanism to optimize the prioritization order dynamically, and compare them in an evaluation of Java-based applications to existing approaches using the standard APFD metric. The results show that our technique is highly competitive.</t>
+  </si>
+  <si>
+    <t>Seeding strategies for multi-objective test case selection: an application on simulation-based testing</t>
+  </si>
+  <si>
+    <t>Aitor Arrieta, Joseba Andoni Agirre, Goiuria Sagardui</t>
+  </si>
+  <si>
+    <t>GECCO '20: Proceedings of the 2020 Genetic and Evolutionary Computation Conference</t>
+  </si>
+  <si>
+    <t>The time it takes software systems to be tested is usually long. This is often caused by the time it takes the entire test suite to be executed. To optimize this, regression test selection approaches have allowed for improvements to the cost-effectiveness of verification and validation activities in the software industry. In this area, multi-objective algorithms have played a key role in selecting the appropriate subset of test cases from the entire test suite. In this paper, we propose a set of seeding strategies for the test case selection problem that generate the initial population of multi-objective algorithms. We integrated these seeding strategies with an NSGA-II algorithm for solving the test case selection problem in the context of simulation-based testing. We evaluated the strategies with six case studies and a total of 21 fitness combinations for each case study (i.e., a total of 126 problems). Our evaluation suggests that these strategies are indeed helpful for solving the multi-objective test case selection problem. In fact, two of the proposed seeding strategies outperformed the NSGA-II algorithm without seeding population with statistical significance for 92.8 and 96% of the problems.</t>
+  </si>
+  <si>
+    <t>A Multi-Objective Technique to Prioritize Test Cases</t>
+  </si>
+  <si>
+    <t>While performing regression testing, an appropriate choice for test case ordering allows the tester to early discover faults in source code. To this end, test case prioritization techniques can be used. Several existing test case prioritization techniques leave out the execution cost of test cases and exploit a single objective function (e.g., code or requirements coverage). In this paper, we present a multi-objective test case prioritization technique that determines the ordering of test cases that maximize the number of discovered faults that are both technical and business critical. In other words, our new technique aims at both early discovering faults and reducing the execution cost of test cases. To this end, we automatically recover links among software artifacts (i.e., requirements specifications, test cases, and source code) and apply a metric-based approach to automatically identify critical and fault-prone portions of software artifacts, thus becoming able to give them more importance during test case prioritization. We experimentally evaluated our technique on 21 Java applications. The obtained results support our hypotheses on efficiency and effectiveness of our new technique and on the use of automatic artifacts analysis and weighting in test case prioritization.</t>
+  </si>
+  <si>
+    <t>Alessandro Marchetto; Md. Mahfuzul Islam; Waseem Asghar; Angelo Susi; Giuseppe Scanniello</t>
+  </si>
+  <si>
+    <t>A large-scale empirical comparison of static and dynamic test case prioritization techniques</t>
+  </si>
+  <si>
+    <t>Qi Luo, Kevin Moran, Denys Poshyvanyk</t>
+  </si>
+  <si>
+    <t>FSE 2016: Proceedings of the 2016 24th ACM SIGSOFT International Symposium on Foundations of Software Engineering</t>
+  </si>
+  <si>
+    <t>The large body of existing research in Test Case Prioritization (TCP) techniques, can be broadly classified into two categories: dynamic techniques (that rely on run-time execution information) and static techniques (that operate directly on source and test code). Absent from this current body of work is a comprehensive study aimed at understanding and evaluating the static approaches and comparing them to dynamic approaches on a large set of projects.
+In this work, we perform the first extensive study aimed at empirically evaluating four static TCP techniques comparing them with state-of-research dynamic TCP techniques at different test-case granularities (e.g., method and class-level) in terms of effectiveness, efficiency and similarity of faults detected. This study was performed on 30 real-word Java programs encompassing 431 KLoC. In terms of effectiveness, we find that the static call-graph-based technique outperforms the other static techniques at test-class level, but the topic-model-based technique performs better at test-method level. In terms of efficiency, the static call-graph-based technique is also the most efficient when compared to other static techniques. When examining the similarity of faults detected for the four static techniques compared to the four dynamic ones, we find that on average, the faults uncovered by these two groups of techniques are quite dissimilar, with the top 10% of test cases agreeing on only 25% - 30% of detected faults. This prompts further research into the severity/importance of faults uncovered by these techniques, and into the potential for combining static and dynamic information for more effective approaches.</t>
+  </si>
+  <si>
+    <t>AGA: An Accelerated Greedy Additional Algorithm for Test Case Prioritization</t>
+  </si>
+  <si>
+    <t>Feng Li; Jianyi Zhou; Yinzhu Li; Dan Hao; Lu Zhang</t>
+  </si>
+  <si>
+    <t>In recent years, many test case prioritization (TCP) techniques have been proposed to speed up the process of fault detection. However, little work has taken the efficiency problem of these techniques into account. In this paper, we target the Greedy Additional (GA) algorithm, which has been widely recognized to be effective but less efficient, and try to improve its efficiency while preserving effectiveness. In our Accelerated GA (AGA) algorithm, we use some extra data structures to reduce redundant data accesses in the GA algorithm and thus the time complexity is reduced from O(m2n) to O(kmn) when n&gt;m, where m is the number of test cases, n is the number of program elements, and k is the iteration number. Moreover, we observe the impact of iteration numbers on prioritization efficiency on our dataset and propose to use a specific iteration number in the AGA algorithm to further improve the efficiency. We conducted experiments on 55 open-source subjects. In particular, we implemented each TCP algorithm with two kinds of widely-used input formats, adjacency matrix and adjacency list. Since a TCP algorithm with adjacency matrix is less efficient than the algorithm with adjacency list, the result analysis is mainly conducted based on TCP algorithms with adjacency list. The results show that AGA achieves 5.95X speedup ratio over GA on average, while it achieves the same average effectiveness as GA in terms of Average Percentage of Fault Detected (APFD). Moreover, we conducted an industrial case study on 22 subjects, collected from Baidu, and find that the average speedup ratio of AGA over GA is 44.27X, which indicates the practical usage of AGA in real-world scenarios.</t>
   </si>
 </sst>
 </file>
@@ -3931,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO162"/>
+  <dimension ref="A1:AO169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="M155" sqref="M155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5750,6 +5829,9 @@
       <c r="AN39" t="s">
         <v>953</v>
       </c>
+      <c r="AO39" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -5791,6 +5873,9 @@
       <c r="AN40" t="s">
         <v>953</v>
       </c>
+      <c r="AO40" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -5832,6 +5917,9 @@
       <c r="AN41" t="s">
         <v>953</v>
       </c>
+      <c r="AO41" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -5873,6 +5961,9 @@
       <c r="AN42" t="s">
         <v>953</v>
       </c>
+      <c r="AO42" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -5911,6 +6002,9 @@
       <c r="AN43" t="s">
         <v>953</v>
       </c>
+      <c r="AO43" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -5952,6 +6046,9 @@
       <c r="AN44" t="s">
         <v>953</v>
       </c>
+      <c r="AO44" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -5999,6 +6096,9 @@
       <c r="AN45" t="s">
         <v>953</v>
       </c>
+      <c r="AO45" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -6043,6 +6143,9 @@
       <c r="AN46" t="s">
         <v>953</v>
       </c>
+      <c r="AO46" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -6087,6 +6190,9 @@
       <c r="AN47" t="s">
         <v>953</v>
       </c>
+      <c r="AO47" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -6128,8 +6234,11 @@
       <c r="AN48" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO48" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8029584</v>
       </c>
@@ -6175,8 +6284,11 @@
       <c r="AN49" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO49" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7838169</v>
       </c>
@@ -6216,8 +6328,11 @@
       <c r="AN50" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO50" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6569743</v>
       </c>
@@ -6260,8 +6375,11 @@
       <c r="AN51" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO51" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7783254</v>
       </c>
@@ -6301,8 +6419,11 @@
       <c r="AN52" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO52" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8854718</v>
       </c>
@@ -6342,8 +6463,11 @@
       <c r="AN53" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO53" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8536351</v>
       </c>
@@ -6380,8 +6504,11 @@
       <c r="AN54" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO54" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7272924</v>
       </c>
@@ -6422,7 +6549,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>9741963</v>
       </c>
@@ -6463,7 +6590,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10675922</v>
       </c>
@@ -6507,7 +6634,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10229439</v>
       </c>
@@ -6551,7 +6678,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8625203</v>
       </c>
@@ -6592,7 +6719,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6649891</v>
       </c>
@@ -6636,7 +6763,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10911525</v>
       </c>
@@ -6677,7 +6804,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10196878</v>
       </c>
@@ -6721,7 +6848,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10366665</v>
       </c>
@@ -6765,7 +6892,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7589817</v>
       </c>
@@ -9885,6 +10012,143 @@
         <v>1155</v>
       </c>
       <c r="AN162" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="163" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F163">
+        <v>2024</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="164" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F164">
+        <v>2022</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="165" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F165">
+        <v>2016</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="166" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F166">
+        <v>2020</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="167" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="168" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F168">
+        <v>2016</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="169" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F169">
+        <v>2022</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AN169" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Backword_Snowballing_1.xlsx
+++ b/5_Snowballing/Backword_Snowballing_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2323A7D6-8FAB-AD4F-8FEC-DA8776008586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673DBE51-EEDA-0342-BC82-917ADD33402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="1740" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22540" yWindow="7500" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1217">
   <si>
     <t>ID</t>
   </si>
@@ -3627,6 +3627,108 @@
   </si>
   <si>
     <t>In recent years, many test case prioritization (TCP) techniques have been proposed to speed up the process of fault detection. However, little work has taken the efficiency problem of these techniques into account. In this paper, we target the Greedy Additional (GA) algorithm, which has been widely recognized to be effective but less efficient, and try to improve its efficiency while preserving effectiveness. In our Accelerated GA (AGA) algorithm, we use some extra data structures to reduce redundant data accesses in the GA algorithm and thus the time complexity is reduced from O(m2n) to O(kmn) when n&gt;m, where m is the number of test cases, n is the number of program elements, and k is the iteration number. Moreover, we observe the impact of iteration numbers on prioritization efficiency on our dataset and propose to use a specific iteration number in the AGA algorithm to further improve the efficiency. We conducted experiments on 55 open-source subjects. In particular, we implemented each TCP algorithm with two kinds of widely-used input formats, adjacency matrix and adjacency list. Since a TCP algorithm with adjacency matrix is less efficient than the algorithm with adjacency list, the result analysis is mainly conducted based on TCP algorithms with adjacency list. The results show that AGA achieves 5.95X speedup ratio over GA on average, while it achieves the same average effectiveness as GA in terms of Average Percentage of Fault Detected (APFD). Moreover, we conducted an industrial case study on 22 subjects, collected from Baidu, and find that the average speedup ratio of AGA over GA is 44.27X, which indicates the practical usage of AGA in real-world scenarios.</t>
+  </si>
+  <si>
+    <t>Scalable and Accurate Test Case Prioritization in Continuous Integration Contexts</t>
+  </si>
+  <si>
+    <t>Continuous Integration (CI) requires efficient regression testing to ensure software quality without significantly delaying its CI builds. This warrants the need for techniques to reduce regression testing time, such as Test Case Prioritization (TCP) techniques that prioritize the execution of test cases to detect faults as early as possible. Many recent TCP studies employ various Machine Learning (ML) techniques to deal with the dynamic and complex nature of CI. However, most of them use a limited number of features for training ML models and evaluate the models on subjects for which the application of TCP makes little practical sense, due to their small regression testing time and low number of failed builds. In this work, we first define, at a conceptual level, a data model that captures data sources and their relations in a typical CI environment. Second, based on this data model, we define a comprehensive set of features that covers all features previously used by related studies. Third, we develop methods and tools to collect the defined features for 25 open-source software systems with enough failed builds and whose regression testing takes at least five minutes. Fourth, relying on the collected dataset containing a comprehensive feature set, we answer four research questions concerning data collection time, the effectiveness of ML-based TCP, the impact of the features on effectiveness, the decay of ML-based TCP models over time, and the trade-off between data collection time and the effectiveness of ML-based TCP techniques.</t>
+  </si>
+  <si>
+    <t>Ahmadreza Saboor Yaraghi; Mojtaba Bagherzadeh; Nafiseh Kahani; Lionel C. Briand</t>
+  </si>
+  <si>
+    <t>Machine learning-based test case prioritization using hyperparameter optimization</t>
+  </si>
+  <si>
+    <t>MA Khan, A Azim, R Liscano, K Smith, YK Chang, Q Tauseef, G Seferi</t>
+  </si>
+  <si>
+    <t>Continuous integration pipelines execute extensive automated test suites to validate new software builds. In this fast-paced development environment, delivering timely testing results to developers is critical to ensuring software quality. Test case prioritization (TCP) emerges as a pivotal solution, enabling the prioritization of fault-prone test cases for immediate attention. Recent advancements in machine learning have showcased promising results in TCP, offering the potential to revolutionize how we optimize testing workflows. Hyperparameter tuning plays a crucial role in enhancing the performance of ML models. However, there needs to be more work investigating the effects of hyperparameter tuning on TCP. Therefore, we explore how optimized hyperparameters influence the performance of various ML classifiers, focusing on the Average Percentage of Faults Detected (APFD) metric. Through empirical analysis of ten real-world, large-scale, diverse datasets, we conduct a grid search-based tuning with 885 hyperparameter combinations for four machine learning models. Our results provide model-specific insights and demonstrate an average 15% improvement in model performance with hyperparameter tuning compared to default settings. We further explain how hyperparameter tuning improves precision (max = 1), recall (max = 0.9633), F1-score (max = 0.9662), and influences APFD value (max = 0.9835), indicating a direct connection between tuning and prioritization performance. Hence, this study underscores the importance of hyperparameter tuning in optimizing failure prediction models and their direct impact on prioritization performance.</t>
+  </si>
+  <si>
+    <t>Proceedings of the 5th ACM/IEEE International Conference on Automation of Software Test (AST ‘24)</t>
+  </si>
+  <si>
+    <t>Hypervolume-Based Search for Test Case Prioritization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search-Based Software Engineering </t>
+  </si>
+  <si>
+    <t>Test case prioritization (TCP) is aimed at finding an ideal ordering for executing the available test cases to reveal faults earlier. To solve this problem greedy algorithms and meta-heuristics have been widely investigated, but in most cases there is no statistically significant difference between them in terms of effectiveness. The fitness function used to guide meta-heuristics condenses the cumulative coverage scores achieved by a test case ordering using the Area Under Curve (AUC) metric. In this paper we notice that the AUC metric represents a simplified version of the hypervolume metric used in many objective optimization and we propose HGA, a Hypervolume-based Genetic Algorithm, to solve the TCP problem when using multiple test criteria. The results shows that HGA is more cost-effective than the additional greedy algorithm on large systems and on average requires 36 % of the execution time required by the additional greedy algorithm.</t>
+  </si>
+  <si>
+    <t>D. Di Nucci, A. Panichella, A. Zaidman and A. De Lucia</t>
+  </si>
+  <si>
+    <t>ReTestDroid: towards safer regression test selection for android application</t>
+  </si>
+  <si>
+    <t>B Jiang, Y Wu, Y Zhang, Z Zhang, WK Chan</t>
+  </si>
+  <si>
+    <t>Mobile applications are widely used in our daily life and Android is the most popular open source mobile operating system. Because mobile applications update frequently, it is important developers to perform regression testing to ensure their quality. Modeling the control flow of an android application based on the activity lifecycle model only is imprecise for regression testing. Because many Android applications use asynchronous tasks, fragments, and native code frequently, which must be considered during change impact analysis. Otherwise, regression test selection techniques may miss some failure-revealing test cases, compromising the safety of these techniques. In this work, we propose a novel approach to model asynchronous task invocations, fragment-based activity lifecycle, and native code within the control flow graph of an Android application. Furthermore, we designed a regression test selection tool ReTestDroid based on our graph model. Our experiments on five real-life Android applications showed that our approach could enable much safer regression test selection while significantly saving regression-testing time.</t>
+  </si>
+  <si>
+    <t>IEEE Annual International Computer Software and Applications Conference (COMPSAC)</t>
+  </si>
+  <si>
+    <t>How does regression test prioritization perform in real-world software evolution?</t>
+  </si>
+  <si>
+    <t>In recent years, researchers have intensively investigated various topics in test prioritization, which aims to re-order tests to increase the rate of fault detection during regression testing. While the main research focus in test prioritization is on proposing novel prioritization techniques and evaluating on more and larger subject systems, little effort has been put on investigating the threats to validity in existing work on test prioritization. One main threat to validity is that existing work mainly evaluates prioritization techniques based on simple artificial changes on the source code and tests. For example, the changes in the source code usually include only seeded program faults, whereas the test suite is usually not augmented at all. On the contrary, in real-world software development, software systems usually undergo various changes on the source code and test suite augmentation. Therefore, it is not clear whether the conclusions drawn by existing work in test prioritization from the artificial changes are still valid for real-world software evolution. In this paper, we present the first empirical study to investigate this important threat to validity in test prioritization. We reimplemented 24 variant techniques of both the traditional and time-aware test prioritization, and investigated the impacts of software evolution on those techniques based on the version history of 8 real-world Java programs from GitHub. The results show that for both traditional and time-aware test prioritization, test suite augmentation significantly hampers their effectiveness, whereas source code changes alone do not influence their effectiveness much.</t>
+  </si>
+  <si>
+    <t>Y Lu, Y Lou, S Cheng, L Zhang, D Hao, Y Zhou, L Zhang</t>
+  </si>
+  <si>
+    <t>Test pair selection for test case prioritization in regression testing for WS-BPEL programs</t>
+  </si>
+  <si>
+    <t>L Mei, Y Cai, C Jia, B Jiang, WK Chan</t>
+  </si>
+  <si>
+    <t>Many web services not only communicate through XML-based messages, but also may dynamically modify their behaviors by applying different interpretations on XML messages through updating the associated XML Schemas or XML-based interface specifications. Such artifacts are usually complex, allowing XML-based messages conforming to these specifications structurally complex. Testing should cost-effectively cover all scenarios. Test case prioritization is a dimension of regression testing that assures a program from unintended modifications by reordering the test cases within a test suite. However, many existing test case prioritization techniques for regression testing treat test cases of different complexity generically. In this paper, the authors exploit the insights on the structural similarity of XML-based artifacts between test cases in both static and dynamic dimensions, and propose a family of test case prioritization techniques that selects pairs of test case without replacement in turn. To the best of their knowledge, it is the first test case prioritization proposal that selects test case pairs for prioritization. The authors validate their techniques by a suite of benchmarks. The empirical results show that when incorporating all dimensions, some members of our technique family can be more effective than conventional coverage-based techniques.</t>
+  </si>
+  <si>
+    <t>International Journal of Web Services Research (IJWSR), 2013</t>
+  </si>
+  <si>
+    <t>Inspecting code churns to prioritize test cases</t>
+  </si>
+  <si>
+    <t>F Altiero, A Corazza, S Di Martino, A Peron, LLL Starace</t>
+  </si>
+  <si>
+    <t>Within the context of software evolution, due to time-to-market pressure, it is not uncommon that a company has not enough time and/or resources to re-execute the whole test suite on the new software version, to check for non-regression. To face this issue, many Regression Test Prioritization techniques have been proposed, aimed at ranking test cases in a way that tests more likely to expose faults have higher priority. Some of these techniques exploit code churn metrics, i.e. some quantification of code changes between two subsequent versions of a software artifact, which have been proven to be effective indicators of defect-prone components. In this paper, we first present three new Regression Test Prioritization strategies, based on a novel code churn metric, that we empirically assessed on an open source software system. Results highlighted that the proposal is promising, but that it might be further improved by a more detailed analysis on the nature of the changes introduced between two subsequent code versions. To this aim, in this paper we also sketch a more refined approach we are currently investigating, that quantifies changes in a code base at a finer grained level. Intuitively, we seek to prioritize tests that stress more fault-prone changes (e.g., structural changes in the control flow), w.r.t. those that are less likely to introduce errors (e.g., the renaming of a variable). To do so, we propose the exploitation of the Abstract Syntax Tree (AST) representation of source code, and to quantify differences between ASTs by means of specifically designed Tree Kernel functions, a type of similarity measure for tree-based data structures, which have shown to be very effective in other domains, thanks to their customizability.</t>
+  </si>
+  <si>
+    <t>IFIP International Conference on Testing Software and Systems, 2020</t>
+  </si>
+  <si>
+    <t>Understanding the effect of time-constraint bounded novel technique for regression test selection and prioritization</t>
+  </si>
+  <si>
+    <t>B Suri, S Singhal</t>
+  </si>
+  <si>
+    <t>International Journal of System Assurance Engineering and Management, 2015</t>
+  </si>
+  <si>
+    <t>It is the demand of our ever-advancing IT industry that software be updated in order to continue its use. Such a modification should not introduce any unwanted new faults in the system. For this, the existing test suite needs to be rerun, often called as regression testing. The main challenge during the regression testing process is not to exceed the desired time and budge deadlines. As a consequence various techniques such as test case selection, minimization and prioritization are used. This paper proposes and analyzes the effect of time constraint on an ant colony optimization based technique for Regression test selection and prioritization. It has been found that with an increase in the applied time constraint, there are more chances to get an optimum selected and prioritized test suite. Also it was found that the complexity of our algorithm depends on the size of the test suite and the applied time constraint and is independent of the number of faults being mutated or any other input variable.</t>
+  </si>
+  <si>
+    <t>Test case selection for all-uses criterion-based regression testing of composite service</t>
+  </si>
+  <si>
+    <t>S Ji, B Li, P Zhang</t>
+  </si>
+  <si>
+    <t>IEEE Access, 2019</t>
+  </si>
+  <si>
+    <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
   </si>
 </sst>
 </file>
@@ -4010,10 +4112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO169"/>
+  <dimension ref="A1:AO178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M155" sqref="M155"/>
+    <sheetView tabSelected="1" topLeftCell="V84" workbookViewId="0">
+      <selection activeCell="AO100" sqref="AO100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6548,6 +6650,9 @@
       <c r="AN55" t="s">
         <v>953</v>
       </c>
+      <c r="AO55" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -6589,6 +6694,9 @@
       <c r="AN56" t="s">
         <v>953</v>
       </c>
+      <c r="AO56" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -6633,6 +6741,9 @@
       <c r="AN57" t="s">
         <v>953</v>
       </c>
+      <c r="AO57" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -6677,6 +6788,9 @@
       <c r="AN58" t="s">
         <v>953</v>
       </c>
+      <c r="AO58" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -6718,6 +6832,9 @@
       <c r="AN59" t="s">
         <v>953</v>
       </c>
+      <c r="AO59" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -6762,6 +6879,9 @@
       <c r="AN60" t="s">
         <v>953</v>
       </c>
+      <c r="AO60" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -6803,6 +6923,9 @@
       <c r="AN61" t="s">
         <v>953</v>
       </c>
+      <c r="AO61" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -6847,6 +6970,9 @@
       <c r="AN62" t="s">
         <v>953</v>
       </c>
+      <c r="AO62" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -6891,6 +7017,9 @@
       <c r="AN63" t="s">
         <v>953</v>
       </c>
+      <c r="AO63" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -6932,8 +7061,11 @@
       <c r="AN64" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO64" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7381799</v>
       </c>
@@ -6973,8 +7105,11 @@
       <c r="AN65" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO65" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>9103716</v>
       </c>
@@ -7014,8 +7149,11 @@
       <c r="AN66" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO66" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10621714</v>
       </c>
@@ -7055,8 +7193,11 @@
       <c r="AN67" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO67" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10216597</v>
       </c>
@@ -7099,8 +7240,11 @@
       <c r="AN68" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO68" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7943143</v>
       </c>
@@ -7140,8 +7284,11 @@
       <c r="AN69" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO69" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9142966</v>
       </c>
@@ -7181,8 +7328,11 @@
       <c r="AN70" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO70" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8530033</v>
       </c>
@@ -7225,8 +7375,11 @@
       <c r="AN71" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO71" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10298714</v>
       </c>
@@ -7269,8 +7422,11 @@
       <c r="AN72" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO72" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8300829</v>
       </c>
@@ -7310,8 +7466,11 @@
       <c r="AN73" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO73" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7819324</v>
       </c>
@@ -7354,8 +7513,11 @@
       <c r="AN74" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO74" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10062444</v>
       </c>
@@ -7398,8 +7560,11 @@
       <c r="AN75" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO75" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9825820</v>
       </c>
@@ -7442,8 +7607,11 @@
       <c r="AN76" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO76" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7272927</v>
       </c>
@@ -7483,8 +7651,11 @@
       <c r="AN77" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO77" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8539203</v>
       </c>
@@ -7524,8 +7695,11 @@
       <c r="AN78" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO78" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6928903</v>
       </c>
@@ -7565,8 +7739,11 @@
       <c r="AN79" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO79" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6595798</v>
       </c>
@@ -7606,8 +7783,11 @@
       <c r="AN80" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO80" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7091286</v>
       </c>
@@ -7653,8 +7833,11 @@
       <c r="AN81" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO81" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10336260</v>
       </c>
@@ -7697,8 +7880,11 @@
       <c r="AN82" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO82" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10304799</v>
       </c>
@@ -7738,8 +7924,11 @@
       <c r="AN83" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO83" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10011478</v>
       </c>
@@ -7779,8 +7968,11 @@
       <c r="AN84" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO84" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9260075</v>
       </c>
@@ -7820,8 +8012,11 @@
       <c r="AN85" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO85" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8914670</v>
       </c>
@@ -7864,8 +8059,11 @@
       <c r="AN86" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO86" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10877022</v>
       </c>
@@ -7908,8 +8106,11 @@
       <c r="AN87" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO87" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7507977</v>
       </c>
@@ -7949,8 +8150,11 @@
       <c r="AN88" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO88" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8305938</v>
       </c>
@@ -7990,8 +8194,11 @@
       <c r="AN89" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO89" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7100474</v>
       </c>
@@ -8028,8 +8235,11 @@
       <c r="AN90" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO90" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8453107</v>
       </c>
@@ -8072,8 +8282,11 @@
       <c r="AN91" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO91" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9464569</v>
       </c>
@@ -8116,8 +8329,11 @@
       <c r="AN92" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO92" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9616824</v>
       </c>
@@ -8157,8 +8373,11 @@
       <c r="AN93" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9155903</v>
       </c>
@@ -8198,8 +8417,11 @@
       <c r="AN94" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO94" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10493937</v>
       </c>
@@ -8239,8 +8461,11 @@
       <c r="AN95" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO95" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7828927</v>
       </c>
@@ -8280,8 +8505,11 @@
       <c r="AN96" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10660677</v>
       </c>
@@ -8321,8 +8549,11 @@
       <c r="AN97" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO97" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8754416</v>
       </c>
@@ -8368,8 +8599,11 @@
       <c r="AN98" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO98" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7582788</v>
       </c>
@@ -8406,8 +8640,11 @@
       <c r="AN99" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO99" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -8465,8 +8702,11 @@
       <c r="AN100" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO100" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -8516,7 +8756,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -8563,7 +8803,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -8610,7 +8850,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -8660,7 +8900,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -8707,7 +8947,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>46</v>
       </c>
@@ -8754,7 +8994,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -8801,7 +9041,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -8851,7 +9091,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -8898,7 +9138,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -8945,7 +9185,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -8992,7 +9232,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>955</v>
       </c>
@@ -10149,6 +10389,186 @@
         <v>1182</v>
       </c>
       <c r="AN169" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="170" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F170">
+        <v>2022</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AN170" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="171" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F171">
+        <v>2024</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="172" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F172">
+        <v>2015</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="173" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F173">
+        <v>2018</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="174" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F174">
+        <v>2016</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="175" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F175">
+        <v>2013</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="176" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F176">
+        <v>2020</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="177" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F177">
+        <v>2015</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="178" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F178">
+        <v>2019</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AN178" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Backword_Snowballing_1.xlsx
+++ b/5_Snowballing/Backword_Snowballing_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673DBE51-EEDA-0342-BC82-917ADD33402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFA089-48EE-B34B-89AD-38C3B864CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22540" yWindow="7500" windowWidth="22280" windowHeight="11800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1231">
   <si>
     <t>ID</t>
   </si>
@@ -3729,6 +3729,58 @@
   </si>
   <si>
     <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
+  </si>
+  <si>
+    <t>An extensive study of static regression test selection in modern software evolution</t>
+  </si>
+  <si>
+    <t>O Legunsen, F Hariri, A Shi, Y Lu, L Zhang, D Marinov</t>
+  </si>
+  <si>
+    <t>Regression test selection (RTS) aims to reduce regression testing time by only re-running the tests affected by code changes. Prior research on RTS can be broadly split into dy namic and static techniques. A recently developed dynamic RTS technique called Ekstazi is gaining some adoption in practice, and its evaluation shows that selecting tests at a coarser, class-level granularity provides better results than selecting tests at a finer, method-level granularity. As dynamic RTS is gaining adoption, it is timely to also evaluate static RTS techniques, some of which were proposed over three decades ago but not extensively evaluated on modern software projects.
+This paper presents the first extensive study that evaluates the performance benefits of static RTS techniques and their safety; a technique is safe if it selects to run all tests that may be affected by code changes. We implemented two static RTS techniques, one class-level and one method-level, and compare several variants of these techniques. We also compare these static RTS techniques against Ekstazi, a state-of-the-art, class-level, dynamic RTS technique. The experimental results on 985 revisions of 22 open-source projects show that the class-level static RTS technique is comparable to Ekstazi, with similar performance benefits, but at the risk of being unsafe sometimes. In contrast, the method-level static RTS technique performs rather poorly.</t>
+  </si>
+  <si>
+    <t>Hybrid regression test selection</t>
+  </si>
+  <si>
+    <t>Proceedings of the 40th International Conference on Software Engineering, 2018</t>
+  </si>
+  <si>
+    <t>L Zhang</t>
+  </si>
+  <si>
+    <t>Regression testing is crucial but can be extremely costly. Regression Test Selection (RTS) aims to reduce regression testing cost by only selecting and running the tests that may be affected by code changes. To date, various RTS techniques analyzing at different granularities (e.g., at the basic-block, method, and file levels) have been proposed. RTS techniques working on finer granularities may be more precise in selecting tests, while techniques working on coarser granularities may have lower overhead. According to a recent study, RTS at the file level (FRTS) can have less overall testing time compared with a finer grained technique at the method level, and represents state-of-the-art RTS. In this paper, we present the first hybrid RTS approach, HyRTS, that analyzes at multiple granularities to combine the strengths of traditional RTS techniques at different granularities. We implemented the basic HyRTS technique by combining the method and file granularity RTS. The experimental results on 2707 revisions of 32 projects, totalling over 124 Million LoC, demonstrate that HyRTS outperforms state-of-the-art FRTS significantly in terms of selected test ratio and the offline testing time. We also studied the impacts of each type of method-level changes, and further designed two new HyRTS variants based on the study results. Our additional experiments show that transforming instance method additions/deletions into file-level changes produces an even more effective HyRTS variant that can significantly outperform FRTS in both offline and online testing time.</t>
+  </si>
+  <si>
+    <t>State of practical applicability of regression testing research: A live systematic literature review</t>
+  </si>
+  <si>
+    <t>R Greca, B Miranda, A Bertolino</t>
+  </si>
+  <si>
+    <t>ACM Computing Surveys, 2023</t>
+  </si>
+  <si>
+    <t>Context
+Software regression testing refers to rerunning test cases after the system under test is modified, ascertaining that the changes have not (re-)introduced failures. Not all researchers’ approaches consider applicability and scalability concerns, and not many have produced an impact in practice.
+Objective
+One goal is to investigate industrial relevance and applicability of proposed approaches. Another is providing a live review, open to continuous updates by the community.
+Method
+A systematic review of regression testing studies that are clearly motivated by or validated against industrial relevance and applicability is conducted. It is complemented by follow-up surveys with authors of the selected papers and 23 practitioners.
+Results
+A set of 79 primary studies published between 2016–2022 is collected and classified according to approaches and metrics. Aspects relative to their relevance and impact are discussed, also based on their authors’ feedback. All the data are made available from the live repository that accompanies the study.
+Conclusions
+While widely motivated by industrial relevance and applicability, not many approaches are evaluated in industrial or large-scale open-source systems, and even fewer approaches have been adopted in practice. Some challenges hindering the implementation of relevant approaches are synthesized, also based on the practitioners’ feedback.</t>
+  </si>
+  <si>
+    <t>Hansie: Hybrid and consensus regression test prioritization</t>
+  </si>
+  <si>
+    <t>Shouvick Mondal, Rupesh Nasre</t>
+  </si>
+  <si>
+    <t>Traditionally, given a test-suite and the underlying system-under-test, existing test-case prioritization heuristics report a permutation of the original test-suite that is seemingly best according to their criteria. However, we observe that a single heuristic does not perform optimally in all possible scenarios, given the diverse nature of software and its changes. Hence, multiple individual heuristics exhibit effectiveness differently. Interestingly, together, the heuristics bear the potential of improving the overall regression test selection across scenarios. In this paper, we pose the test-case prioritization as a rank aggregation problem from social choice theory. Our solution approach, named Hansie, is two-flavored: one involving priority-aware hybridization, and the other involving priority-blind computation of a consensus ordering from individual prioritizations. To speed-up test-execution, Hansie executes the aggregated test-case orderings in a parallel multi-processed manner leveraging regular windows in the absence of ties, and irregular windows in the presence of ties. We show the benefit of test-execution after prioritization and introduce a cost-cognizant metric (EPL) for quantifying overall timeline latency due to load-imbalance arising from uniform or non-uniform parallelization windows. We evaluate Hansie on 20 open-source subjects totaling 287,530 lines of source code, 69,305 test-cases, and with parallelization support of up to 40 logical CPUs.</t>
   </si>
 </sst>
 </file>
@@ -4112,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO178"/>
+  <dimension ref="A1:AO182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V84" workbookViewId="0">
-      <selection activeCell="AO100" sqref="AO100"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8755,6 +8807,9 @@
       <c r="AN101" t="s">
         <v>952</v>
       </c>
+      <c r="AO101" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -8802,6 +8857,9 @@
       <c r="AN102" t="s">
         <v>953</v>
       </c>
+      <c r="AO102" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -8849,6 +8907,9 @@
       <c r="AN103" t="s">
         <v>953</v>
       </c>
+      <c r="AO103" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -8899,6 +8960,9 @@
       <c r="AN104" t="s">
         <v>953</v>
       </c>
+      <c r="AO104" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -8946,6 +9010,9 @@
       <c r="AN105" t="s">
         <v>953</v>
       </c>
+      <c r="AO105" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -8993,6 +9060,9 @@
       <c r="AN106" t="s">
         <v>953</v>
       </c>
+      <c r="AO106" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -9040,6 +9110,9 @@
       <c r="AN107" t="s">
         <v>953</v>
       </c>
+      <c r="AO107" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -9090,6 +9163,9 @@
       <c r="AN108" t="s">
         <v>953</v>
       </c>
+      <c r="AO108" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -9137,6 +9213,9 @@
       <c r="AN109" t="s">
         <v>953</v>
       </c>
+      <c r="AO109" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -9184,6 +9263,9 @@
       <c r="AN110" t="s">
         <v>953</v>
       </c>
+      <c r="AO110" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -10569,6 +10651,86 @@
         <v>1216</v>
       </c>
       <c r="AN178" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="179" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F179">
+        <v>2016</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AN179" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="180" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F180">
+        <v>2018</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AN180" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="181" spans="3:40" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F181">
+        <v>2023</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="182" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D182" t="s">
+        <v>823</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F182">
+        <v>2021</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AN182" t="s">
         <v>953</v>
       </c>
     </row>
